--- a/medicine/Pharmacie/Lévocétirizine/Lévocétirizine.xlsx
+++ b/medicine/Pharmacie/Lévocétirizine/Lévocétirizine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9voc%C3%A9tirizine</t>
+          <t>Lévocétirizine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La lévocétirizine ou dichlorhydrate de lévocétirizine  est un antihistaminique de deuxième génération, développé à partir de la cétirizine, un antihistaminique de la même génération[2]. Il est utilisé dans le traitement de l’allergie, des symptômes associés à la rhinite allergique (incluant la rhinite allergique persistante) ainsi que des démangeaisons et rougeurs (urticaire). 
+La lévocétirizine ou dichlorhydrate de lévocétirizine  est un antihistaminique de deuxième génération, développé à partir de la cétirizine, un antihistaminique de la même génération. Il est utilisé dans le traitement de l’allergie, des symptômes associés à la rhinite allergique (incluant la rhinite allergique persistante) ainsi que des démangeaisons et rougeurs (urticaire). 
 Chimiquement parlant, la lévocétirizine est l'énantiomère actif de la cétirizine, ce qui signifie que l'énantiomére inactif a été supprimé du produit final. Cliniquement parlant, la lévocétirizine n'a donc aucun effet supplémentaire par rapport à la cétirizine.
 Le médicament est commercialisé par UCB Pharma sous les noms de Xyzal, Xyzall ou Xozal. Il est également disponible sous forme générique.
 Xyzal existe en comprimé de 5 mg et il est commercialisé par UCB Pharma. Xyzal fut lancé en 2001. 
-Les médicaments à base de lévocétirizine possèdent un certain nombre d'effets indésirables ; parmi ceux jugés fréquents ou peu fréquents (qui surviennent chez plus de 1 patient traité sur 100)[3] :
+Les médicaments à base de lévocétirizine possèdent un certain nombre d'effets indésirables ; parmi ceux jugés fréquents ou peu fréquents (qui surviennent chez plus de 1 patient traité sur 100) :
 somnolence/endormissement
 maux de tête
 sécheresse de la bouche
